--- a/sofiback/public/ppollo.xlsx
+++ b/sofiback/public/ppollo.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyectos\sofi\sofiback\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AD$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -116,11 +116,14 @@
   <si>
     <t>Brasa 6       cja.    und</t>
   </si>
+  <si>
+    <t>Fact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1241,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AE46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:O2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,9 +1259,10 @@
     <col min="26" max="26" width="6.140625" customWidth="1"/>
     <col min="27" max="29" width="4.7109375" customWidth="1"/>
     <col min="30" max="30" width="31.140625" customWidth="1"/>
+    <col min="31" max="31" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q1" s="70" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1275,7 @@
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
     </row>
-    <row r="2" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1303,12 +1307,12 @@
       <c r="Z2" s="71"/>
       <c r="AA2" s="68">
         <f ca="1">NOW()</f>
-        <v>44670.766745370369</v>
+        <v>44781.62263888889</v>
       </c>
       <c r="AB2" s="68"/>
       <c r="AC2" s="68"/>
     </row>
-    <row r="3" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,8 +1387,11 @@
       <c r="AD3" s="52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
         <v>1</v>
       </c>
@@ -1417,8 +1424,9 @@
       <c r="AB4" s="13"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="53"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="53"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>2</v>
       </c>
@@ -1451,8 +1459,9 @@
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
       <c r="AD5" s="54"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="54"/>
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61">
         <v>3</v>
       </c>
@@ -1485,8 +1494,9 @@
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
       <c r="AD6" s="55"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="55"/>
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>4</v>
       </c>
@@ -1519,8 +1529,9 @@
       <c r="AB7" s="15"/>
       <c r="AC7" s="15"/>
       <c r="AD7" s="54"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="54"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>5</v>
       </c>
@@ -1553,8 +1564,9 @@
       <c r="AB8" s="16"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="55"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="55"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>6</v>
       </c>
@@ -1587,8 +1599,9 @@
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="54"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="54"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>7</v>
       </c>
@@ -1621,8 +1634,9 @@
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="55"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="55"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>8</v>
       </c>
@@ -1655,8 +1669,9 @@
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="54"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="54"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>9</v>
       </c>
@@ -1689,8 +1704,9 @@
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="55"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="55"/>
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>10</v>
       </c>
@@ -1723,8 +1739,9 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="54"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="54"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>11</v>
       </c>
@@ -1757,8 +1774,9 @@
       <c r="AB14" s="67"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="55"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="55"/>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>12</v>
       </c>
@@ -1791,8 +1809,9 @@
       <c r="AB15" s="15"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="54"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="54"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>13</v>
       </c>
@@ -1825,8 +1844,9 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="55"/>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="55"/>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>14</v>
       </c>
@@ -1859,8 +1879,9 @@
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="54"/>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE17" s="54"/>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>15</v>
       </c>
@@ -1893,8 +1914,9 @@
       <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
       <c r="AD18" s="55"/>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="55"/>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>16</v>
       </c>
@@ -1927,8 +1949,9 @@
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
       <c r="AD19" s="54"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="54"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>17</v>
       </c>
@@ -1961,8 +1984,9 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="56"/>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="56"/>
+    </row>
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>18</v>
       </c>
@@ -1995,8 +2019,9 @@
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="54"/>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="54"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>19</v>
       </c>
@@ -2029,8 +2054,9 @@
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="56"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="56"/>
+    </row>
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60">
         <v>20</v>
       </c>
@@ -2063,8 +2089,9 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="54"/>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="54"/>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63">
         <v>21</v>
       </c>
@@ -2097,8 +2124,9 @@
       <c r="AB24" s="19"/>
       <c r="AC24" s="19"/>
       <c r="AD24" s="57"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="57"/>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60">
         <v>22</v>
       </c>
@@ -2131,8 +2159,9 @@
       <c r="AB25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="54"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="54"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63">
         <v>23</v>
       </c>
@@ -2165,8 +2194,9 @@
       <c r="AB26" s="19"/>
       <c r="AC26" s="19"/>
       <c r="AD26" s="57"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="57"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60">
         <v>24</v>
       </c>
@@ -2199,8 +2229,9 @@
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="54"/>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="54"/>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63">
         <v>25</v>
       </c>
@@ -2233,8 +2264,9 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="57"/>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="57"/>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>26</v>
       </c>
@@ -2267,8 +2299,9 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="54"/>
-    </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="54"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>27</v>
       </c>
@@ -2301,8 +2334,9 @@
       <c r="AB30" s="19"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="57"/>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="57"/>
+    </row>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" ref="A31:A38" si="0">+A30+1</f>
         <v>28</v>
@@ -2336,8 +2370,9 @@
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="54"/>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="54"/>
+    </row>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2371,8 +2406,9 @@
       <c r="AB32" s="19"/>
       <c r="AC32" s="19"/>
       <c r="AD32" s="57"/>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="57"/>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2406,8 +2442,9 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="54"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE33" s="54"/>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2441,8 +2478,9 @@
       <c r="AB34" s="19"/>
       <c r="AC34" s="19"/>
       <c r="AD34" s="57"/>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE34" s="57"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2476,8 +2514,9 @@
       <c r="AB35" s="15"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="54"/>
-    </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE35" s="54"/>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2511,8 +2550,9 @@
       <c r="AB36" s="19"/>
       <c r="AC36" s="19"/>
       <c r="AD36" s="57"/>
-    </row>
-    <row r="37" spans="1:30" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE36" s="57"/>
+    </row>
+    <row r="37" spans="1:31" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2546,8 +2586,9 @@
       <c r="AB37" s="15"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="54"/>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE37" s="54"/>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2581,8 +2622,9 @@
       <c r="AB38" s="22"/>
       <c r="AC38" s="22"/>
       <c r="AD38" s="58"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="58"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" ref="C39:AB39" si="1">SUM(C4:C38)</f>
         <v>0</v>
@@ -2691,8 +2733,12 @@
         <f>SUM(AD4:AD38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="20">
+        <f>SUM(AE4:AE38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5">
         <f>SUM(D4:D38)/18</f>
@@ -2732,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2776,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2807,16 +2853,17 @@
       <c r="AB42" s="10"/>
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
-    </row>
-    <row r="43" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="10"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="J46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B30:G38 C4:G29 H4:AC38 AD4:AD6 AD8:AD38" name="Rango1"/>
+    <protectedRange sqref="B30:G38 C4:G29 H4:AC38 AD4:AE6 AD8:AE38" name="Rango1"/>
     <protectedRange sqref="B4:B29" name="Rango1_27"/>
   </protectedRanges>
   <mergeCells count="12">

--- a/sofiback/public/ppollo.xlsx
+++ b/sofiback/public/ppollo.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7EF65-6444-4AB1-B368-F1F8AD20EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AD$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$AE$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -119,11 +111,14 @@
   <si>
     <t>Fact</t>
   </si>
+  <si>
+    <t>Rango</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -280,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -810,6 +805,54 @@
       <left style="thick">
         <color theme="8"/>
       </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="8"/>
       </right>
@@ -839,7 +882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -852,7 +894,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -867,7 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -879,7 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -911,7 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,9 +959,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,9 +998,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1243,11 +1286,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,1378 +1298,1419 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="25" width="5.85546875" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" customWidth="1"/>
-    <col min="27" max="29" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="31.140625" customWidth="1"/>
-    <col min="31" max="31" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" customWidth="1"/>
+    <col min="20" max="26" width="5.85546875" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" customWidth="1"/>
+    <col min="28" max="30" width="4.7109375" customWidth="1"/>
+    <col min="31" max="31" width="31.140625" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="70" t="s">
+    <row r="1" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-    </row>
-    <row r="2" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+    </row>
+    <row r="2" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="71" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="68">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="62">
         <f ca="1">NOW()</f>
-        <v>44781.62263888889</v>
-      </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-    </row>
-    <row r="3" spans="1:31" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45199.663842592592</v>
+      </c>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+    </row>
+    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="76" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="76" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="76" t="s">
+      <c r="N3" s="71"/>
+      <c r="O3" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="76" t="s">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="45" t="s">
+      <c r="R3" s="71"/>
+      <c r="S3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="V3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="W3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="X3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="Y3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="Z3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="AA3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="48" t="s">
+      <c r="AB3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AC3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AD3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="52" t="s">
+      <c r="AE3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="52" t="s">
+      <c r="AF3" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
         <v>1</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="37"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-    </row>
-    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-    </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61">
+      <c r="B5" s="14"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+    </row>
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="39"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-    </row>
-    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="R6" s="36"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="B7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+    </row>
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="39"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="36"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-    </row>
-    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="R8" s="36"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+    </row>
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="B9" s="14"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+    </row>
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="39"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="39"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="36"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="39"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="R10" s="36"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+    </row>
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="B11" s="14"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+    </row>
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="39"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="39"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-    </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
+      <c r="R12" s="36"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+    </row>
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="B13" s="14"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+    </row>
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
         <v>11</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="39"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="39"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="36"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-    </row>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="R14" s="36"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+    </row>
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55">
         <v>12</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61">
+      <c r="B15" s="14"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+    </row>
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="39"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-    </row>
-    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+      <c r="R16" s="36"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+    </row>
+    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-    </row>
-    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61">
+      <c r="B17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+    </row>
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
         <v>15</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="39"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="39"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="36"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-    </row>
-    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+      <c r="R18" s="36"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+    </row>
+    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
         <v>16</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-    </row>
-    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="B19" s="14"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="50"/>
+      <c r="AF19" s="50"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
         <v>17</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-    </row>
-    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="B20" s="15"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+    </row>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
         <v>18</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-    </row>
-    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="B21" s="14"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+    </row>
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
         <v>19</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-    </row>
-    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="B22" s="15"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+    </row>
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55">
         <v>20</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-    </row>
-    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63">
+      <c r="B23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+    </row>
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-    </row>
-    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
+      <c r="B24" s="17"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="52"/>
+    </row>
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55">
         <v>22</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-    </row>
-    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63">
+      <c r="B25" s="14"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="50"/>
+      <c r="AF25" s="50"/>
+    </row>
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
         <v>23</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+    </row>
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
         <v>24</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="B27" s="14"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+    </row>
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57">
         <v>25</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-    </row>
-    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="52"/>
+    </row>
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55">
         <v>26</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-    </row>
-    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="B29" s="14"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="50"/>
+      <c r="AF29" s="50"/>
+    </row>
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-    </row>
-    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="B30" s="16"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="52"/>
+      <c r="AF30" s="52"/>
+    </row>
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
         <f t="shared" ref="A31:A38" si="0">+A30+1</f>
         <v>28</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="54"/>
-    </row>
-    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="B31" s="8"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+    </row>
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="57"/>
-    </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="B32" s="16"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="52"/>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="54"/>
-    </row>
-    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="B33" s="8"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+    </row>
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="19"/>
-      <c r="AC34" s="19"/>
-      <c r="AD34" s="57"/>
-      <c r="AE34" s="57"/>
-    </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="B34" s="16"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="52"/>
+      <c r="AF34" s="52"/>
+    </row>
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-    </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="B35" s="8"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+    </row>
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-    </row>
-    <row r="37" spans="1:31" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="B36" s="16"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="52"/>
+      <c r="AF36" s="52"/>
+    </row>
+    <row r="37" spans="1:32" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="54"/>
-    </row>
-    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="B37" s="8"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="50"/>
+      <c r="AF37" s="50"/>
+    </row>
+    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C39">
-        <f t="shared" ref="C39:AB39" si="1">SUM(C4:C38)</f>
+        <f t="shared" ref="C39:AC39" si="1">SUM(C4:C38)</f>
         <v>0</v>
       </c>
       <c r="D39">
@@ -2729,16 +2813,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="20">
-        <f>SUM(AD4:AD38)</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="20">
+      <c r="AC39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="18">
         <f>SUM(AE4:AE38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF39" s="18">
+        <f>SUM(AF4:AF38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5">
         <f>SUM(D4:D38)/18</f>
@@ -2777,8 +2865,9 @@
         <f>SUM(R4:R38)/12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2786,12 +2875,12 @@
         <f>+D40+C39</f>
         <v>0</v>
       </c>
-      <c r="D41" s="35"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="7">
         <f>+F40+E39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="7">
         <f>+H40+G39</f>
         <v>0</v>
@@ -2822,55 +2911,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-    </row>
-    <row r="43" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="J46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B30:G38 C4:G29 H4:AC38 AD4:AE6 AD8:AE38" name="Rango1"/>
+    <protectedRange sqref="B30:G38 C4:G29 H4:AD38 AE4:AF6 AE8:AF38" name="Rango1"/>
     <protectedRange sqref="B4:B29" name="Rango1_27"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="E2:O2"/>
-    <mergeCell ref="Q1:Y1"/>
-    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I3:J3"/>
@@ -2883,7 +2973,7 @@
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup scale="72" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="1048575" man="1"/>
+    <brk id="31" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
     <ignoredError sqref="I39 K39 M39 O39 Q39" formulaRange="1"/>
@@ -2892,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>

--- a/sofiback/public/ppollo.xlsx
+++ b/sofiback/public/ppollo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sofi\sofiback\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7EF65-6444-4AB1-B368-F1F8AD20EC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB7D2C-A9D2-4904-8029-6B5194F6982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Rango</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Comentario</t>
   </si>
 </sst>
 </file>
@@ -968,6 +974,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,14 +1012,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1287,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AD2"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,40 +1309,42 @@
     <col min="27" max="27" width="6.140625" customWidth="1"/>
     <col min="28" max="30" width="4.7109375" customWidth="1"/>
     <col min="31" max="31" width="31.140625" customWidth="1"/>
-    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q1" s="64" t="s">
+    <row r="1" spans="1:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-    </row>
-    <row r="2" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+    </row>
+    <row r="2" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="47"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="11"/>
@@ -1347,57 +1355,57 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
-      <c r="Z2" s="65" t="s">
+      <c r="Z2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="62">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="68">
         <f ca="1">NOW()</f>
-        <v>45199.663842592592</v>
-      </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-    </row>
-    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45528.55993865741</v>
+      </c>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+    </row>
+    <row r="3" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="70" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="70" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="70" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="72" t="s">
+      <c r="R3" s="77"/>
+      <c r="S3" s="62" t="s">
         <v>27</v>
       </c>
       <c r="T3" s="41" t="s">
@@ -1439,8 +1447,14 @@
       <c r="AF3" s="48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG3" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <v>1</v>
       </c>
@@ -1461,7 +1475,7 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="34"/>
-      <c r="S4" s="73"/>
+      <c r="S4" s="63"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -1475,8 +1489,10 @@
       <c r="AD4" s="13"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="49"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>2</v>
       </c>
@@ -1497,7 +1513,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="35"/>
-      <c r="S5" s="74"/>
+      <c r="S5" s="64"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
@@ -1511,8 +1527,10 @@
       <c r="AD5" s="14"/>
       <c r="AE5" s="50"/>
       <c r="AF5" s="50"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>3</v>
       </c>
@@ -1533,7 +1551,7 @@
       <c r="P6" s="36"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="75"/>
+      <c r="S6" s="65"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -1547,8 +1565,10 @@
       <c r="AD6" s="15"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>4</v>
       </c>
@@ -1569,7 +1589,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="74"/>
+      <c r="S7" s="64"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14"/>
@@ -1583,8 +1603,10 @@
       <c r="AD7" s="14"/>
       <c r="AE7" s="50"/>
       <c r="AF7" s="50"/>
-    </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>5</v>
       </c>
@@ -1605,7 +1627,7 @@
       <c r="P8" s="36"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="36"/>
-      <c r="S8" s="75"/>
+      <c r="S8" s="65"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -1619,8 +1641,10 @@
       <c r="AD8" s="15"/>
       <c r="AE8" s="51"/>
       <c r="AF8" s="51"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>6</v>
       </c>
@@ -1641,7 +1665,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="35"/>
-      <c r="S9" s="74"/>
+      <c r="S9" s="64"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14"/>
@@ -1655,8 +1679,10 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="50"/>
       <c r="AF9" s="50"/>
-    </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>7</v>
       </c>
@@ -1677,7 +1703,7 @@
       <c r="P10" s="36"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="36"/>
-      <c r="S10" s="75"/>
+      <c r="S10" s="65"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -1691,8 +1717,10 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="51"/>
       <c r="AF10" s="51"/>
-    </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="51"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>8</v>
       </c>
@@ -1713,7 +1741,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="74"/>
+      <c r="S11" s="64"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
@@ -1727,8 +1755,10 @@
       <c r="AD11" s="14"/>
       <c r="AE11" s="50"/>
       <c r="AF11" s="50"/>
-    </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <v>9</v>
       </c>
@@ -1749,7 +1779,7 @@
       <c r="P12" s="36"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="36"/>
-      <c r="S12" s="75"/>
+      <c r="S12" s="65"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -1763,8 +1793,10 @@
       <c r="AD12" s="15"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="51"/>
-    </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>10</v>
       </c>
@@ -1785,7 +1817,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="74"/>
+      <c r="S13" s="64"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
@@ -1799,8 +1831,10 @@
       <c r="AD13" s="14"/>
       <c r="AE13" s="50"/>
       <c r="AF13" s="50"/>
-    </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <v>11</v>
       </c>
@@ -1821,7 +1855,7 @@
       <c r="P14" s="36"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="75"/>
+      <c r="S14" s="65"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -1835,8 +1869,10 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
-    </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>12</v>
       </c>
@@ -1857,7 +1893,7 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="74"/>
+      <c r="S15" s="64"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
@@ -1871,8 +1907,10 @@
       <c r="AD15" s="14"/>
       <c r="AE15" s="50"/>
       <c r="AF15" s="50"/>
-    </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <v>13</v>
       </c>
@@ -1893,7 +1931,7 @@
       <c r="P16" s="36"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="36"/>
-      <c r="S16" s="75"/>
+      <c r="S16" s="65"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
@@ -1907,8 +1945,10 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
-    </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>14</v>
       </c>
@@ -1929,7 +1969,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="74"/>
+      <c r="S17" s="64"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
@@ -1943,8 +1983,10 @@
       <c r="AD17" s="14"/>
       <c r="AE17" s="50"/>
       <c r="AF17" s="50"/>
-    </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+    </row>
+    <row r="18" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56">
         <v>15</v>
       </c>
@@ -1965,7 +2007,7 @@
       <c r="P18" s="36"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="36"/>
-      <c r="S18" s="75"/>
+      <c r="S18" s="65"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -1979,8 +2021,10 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
-    </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+    </row>
+    <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>16</v>
       </c>
@@ -2001,7 +2045,7 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="35"/>
-      <c r="S19" s="74"/>
+      <c r="S19" s="64"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
       <c r="V19" s="14"/>
@@ -2015,8 +2059,10 @@
       <c r="AD19" s="14"/>
       <c r="AE19" s="50"/>
       <c r="AF19" s="50"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56">
         <v>17</v>
       </c>
@@ -2037,7 +2083,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="36"/>
-      <c r="S20" s="75"/>
+      <c r="S20" s="65"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -2051,8 +2097,10 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
-    </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>18</v>
       </c>
@@ -2073,7 +2121,7 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="74"/>
+      <c r="S21" s="64"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="14"/>
@@ -2087,8 +2135,10 @@
       <c r="AD21" s="14"/>
       <c r="AE21" s="50"/>
       <c r="AF21" s="50"/>
-    </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56">
         <v>19</v>
       </c>
@@ -2109,7 +2159,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="36"/>
-      <c r="S22" s="75"/>
+      <c r="S22" s="65"/>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -2123,8 +2173,10 @@
       <c r="AD22" s="15"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="51"/>
-    </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>20</v>
       </c>
@@ -2145,7 +2197,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="74"/>
+      <c r="S23" s="64"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -2159,8 +2211,10 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="50"/>
       <c r="AF23" s="50"/>
-    </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+    </row>
+    <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>21</v>
       </c>
@@ -2181,7 +2235,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="37"/>
-      <c r="S24" s="76"/>
+      <c r="S24" s="66"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
@@ -2195,8 +2249,10 @@
       <c r="AD24" s="17"/>
       <c r="AE24" s="52"/>
       <c r="AF24" s="52"/>
-    </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG24" s="52"/>
+      <c r="AH24" s="52"/>
+    </row>
+    <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>22</v>
       </c>
@@ -2217,7 +2273,7 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="35"/>
-      <c r="S25" s="74"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
@@ -2231,8 +2287,10 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="50"/>
       <c r="AF25" s="50"/>
-    </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>23</v>
       </c>
@@ -2253,7 +2311,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="37"/>
-      <c r="S26" s="76"/>
+      <c r="S26" s="66"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
@@ -2267,8 +2325,10 @@
       <c r="AD26" s="17"/>
       <c r="AE26" s="52"/>
       <c r="AF26" s="52"/>
-    </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>24</v>
       </c>
@@ -2289,7 +2349,7 @@
       <c r="P27" s="35"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="35"/>
-      <c r="S27" s="74"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
@@ -2303,8 +2363,10 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="50"/>
       <c r="AF27" s="50"/>
-    </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="50"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>25</v>
       </c>
@@ -2325,7 +2387,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="37"/>
-      <c r="S28" s="76"/>
+      <c r="S28" s="66"/>
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
@@ -2339,8 +2401,10 @@
       <c r="AD28" s="17"/>
       <c r="AE28" s="52"/>
       <c r="AF28" s="52"/>
-    </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>26</v>
       </c>
@@ -2361,7 +2425,7 @@
       <c r="P29" s="35"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="35"/>
-      <c r="S29" s="74"/>
+      <c r="S29" s="64"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
@@ -2375,8 +2439,10 @@
       <c r="AD29" s="14"/>
       <c r="AE29" s="50"/>
       <c r="AF29" s="50"/>
-    </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG29" s="50"/>
+      <c r="AH29" s="50"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>27</v>
       </c>
@@ -2397,7 +2463,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="37"/>
-      <c r="S30" s="76"/>
+      <c r="S30" s="66"/>
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
@@ -2411,8 +2477,10 @@
       <c r="AD30" s="17"/>
       <c r="AE30" s="52"/>
       <c r="AF30" s="52"/>
-    </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" ref="A31:A38" si="0">+A30+1</f>
         <v>28</v>
@@ -2434,7 +2502,7 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="74"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
@@ -2448,8 +2516,10 @@
       <c r="AD31" s="14"/>
       <c r="AE31" s="50"/>
       <c r="AF31" s="50"/>
-    </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="50"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2471,7 +2541,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="37"/>
-      <c r="S32" s="76"/>
+      <c r="S32" s="66"/>
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
@@ -2485,8 +2555,10 @@
       <c r="AD32" s="17"/>
       <c r="AE32" s="52"/>
       <c r="AF32" s="52"/>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2508,7 +2580,7 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="35"/>
-      <c r="S33" s="74"/>
+      <c r="S33" s="64"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
@@ -2522,8 +2594,10 @@
       <c r="AD33" s="14"/>
       <c r="AE33" s="50"/>
       <c r="AF33" s="50"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="50"/>
+    </row>
+    <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2545,7 +2619,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="37"/>
-      <c r="S34" s="76"/>
+      <c r="S34" s="66"/>
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
@@ -2559,8 +2633,10 @@
       <c r="AD34" s="17"/>
       <c r="AE34" s="52"/>
       <c r="AF34" s="52"/>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+    </row>
+    <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2582,7 +2658,7 @@
       <c r="P35" s="35"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="35"/>
-      <c r="S35" s="74"/>
+      <c r="S35" s="64"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
@@ -2596,8 +2672,10 @@
       <c r="AD35" s="14"/>
       <c r="AE35" s="50"/>
       <c r="AF35" s="50"/>
-    </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2619,7 +2697,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="37"/>
-      <c r="S36" s="76"/>
+      <c r="S36" s="66"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
@@ -2633,8 +2711,10 @@
       <c r="AD36" s="17"/>
       <c r="AE36" s="52"/>
       <c r="AF36" s="52"/>
-    </row>
-    <row r="37" spans="1:32" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG36" s="52"/>
+      <c r="AH36" s="52"/>
+    </row>
+    <row r="37" spans="1:34" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2656,7 +2736,7 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="35"/>
-      <c r="S37" s="74"/>
+      <c r="S37" s="64"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
@@ -2670,8 +2750,10 @@
       <c r="AD37" s="14"/>
       <c r="AE37" s="50"/>
       <c r="AF37" s="50"/>
-    </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+    </row>
+    <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2693,7 +2775,7 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="38"/>
-      <c r="S38" s="77"/>
+      <c r="S38" s="67"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
@@ -2707,8 +2789,10 @@
       <c r="AD38" s="20"/>
       <c r="AE38" s="53"/>
       <c r="AF38" s="53"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C39">
         <f t="shared" ref="C39:AC39" si="1">SUM(C4:C38)</f>
         <v>0</v>
@@ -2821,12 +2905,14 @@
         <f>SUM(AE4:AE38)</f>
         <v>0</v>
       </c>
-      <c r="AF39" s="18">
-        <f>SUM(AF4:AF38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18">
+        <f>SUM(AH4:AH38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5">
         <f>SUM(D4:D38)/18</f>
@@ -2867,7 +2953,7 @@
       </c>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2944,16 +3030,18 @@
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="9"/>
-    </row>
-    <row r="43" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+    </row>
+    <row r="43" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="J46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B30:G38 C4:G29 H4:AD38 AE4:AF6 AE8:AF38" name="Rango1"/>
+    <protectedRange sqref="B30:G38 C4:G29 H4:AD38 AE4:AH6 AE8:AH38" name="Rango1"/>
     <protectedRange sqref="B4:B29" name="Rango1_27"/>
   </protectedRanges>
   <mergeCells count="12">
@@ -2973,7 +3061,7 @@
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup scale="72" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="31" max="1048575" man="1"/>
+    <brk id="33" max="1048575" man="1"/>
   </colBreaks>
   <ignoredErrors>
     <ignoredError sqref="I39 K39 M39 O39 Q39" formulaRange="1"/>
